--- a/data/reports/Paradox-Players.xlsx
+++ b/data/reports/Paradox-Players.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjessup/Documents/Development/PublicSource/clash-stats/data/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE4C64B7-414C-4D4F-BF94-34F25AE4A9A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229AFA4E-46C0-1245-BA7E-2E98045B0B77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53420" yWindow="11200" windowWidth="27240" windowHeight="16440" xr2:uid="{A1692942-F887-134C-AB02-B4A582B1C76D}"/>
+    <workbookView xWindow="18780" yWindow="5900" windowWidth="14540" windowHeight="12740" xr2:uid="{A1692942-F887-134C-AB02-B4A582B1C76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Player Name</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>9QPV9VGY</t>
+  </si>
+  <si>
+    <t>G Squad</t>
+  </si>
+  <si>
+    <t>JJPVG0GJ</t>
+  </si>
+  <si>
+    <t>Delivering Chaos</t>
+  </si>
+  <si>
+    <t>YRVGGUG8</t>
+  </si>
+  <si>
+    <t>g-solo</t>
+  </si>
+  <si>
+    <t>QR9PU9CU</t>
   </si>
 </sst>
 </file>
@@ -543,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657BABE1-0D22-6C48-B6A4-372CAC8B1B44}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,6 +781,30 @@
         <v>30</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B26">
     <sortCondition ref="A2:A26"/>

--- a/data/reports/Paradox-Players.xlsx
+++ b/data/reports/Paradox-Players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjessup/Documents/Development/PublicSource/clash-stats/data/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229AFA4E-46C0-1245-BA7E-2E98045B0B77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02068825-1962-184C-B382-C5F3BC6D0E1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="5900" windowWidth="14540" windowHeight="12740" xr2:uid="{A1692942-F887-134C-AB02-B4A582B1C76D}"/>
+    <workbookView xWindow="37940" yWindow="8440" windowWidth="14540" windowHeight="16580" xr2:uid="{A1692942-F887-134C-AB02-B4A582B1C76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Player Name</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>QR9PU9CU</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>GYUUQCPP</t>
+  </si>
+  <si>
+    <t>Malamutt</t>
+  </si>
+  <si>
+    <t>209PCJ8C</t>
+  </si>
+  <si>
+    <t>Street Product</t>
+  </si>
+  <si>
+    <t>LPLR9RY0</t>
   </si>
 </sst>
 </file>
@@ -561,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657BABE1-0D22-6C48-B6A4-372CAC8B1B44}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,6 +823,30 @@
         <v>57</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B26">
     <sortCondition ref="A2:A26"/>
